--- a/tempos_status_praetor_20242.xlsx
+++ b/tempos_status_praetor_20242.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,150 +465,260 @@
           <t>Hora Em andamento</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Em andamento -&gt; Encerrado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Hora Encerrado</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Reaberto -&gt; Encerrado 2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Hora Reaberto</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Hora Encerrado 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>particulado</t>
-        </is>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>20242</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="D2" s="2" t="n">
+        <v>-0.006273148148148148</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>01:41:40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>01:32:38</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0.004537037037037037</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>01:39:10</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0.001840277777777778</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>01:41:40</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>01:44:19</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ESCORRIDO</t>
+          <t>vazado de tinta</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>20242</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>-0.006261574074074074</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23:54:45</t>
+          <t>01:41:35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>23:54:45</t>
+          <t>01:32:34</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.00400462962962963</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>01:38:20</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0.001863425925925926</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>01:41:35</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>01:44:16</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vazado de tinta</t>
+          <t>vasado</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>20242</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>0.001030092592592593</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>00:32:53</t>
+          <t>01:29:42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:32:53</t>
+          <t>01:31:11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.004525462962962963</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>01:37:42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0.001851851851851852</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>01:41:30</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>01:44:10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vazado de tinta</t>
+          <t>overspray</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>20242</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>0.004965277777777778</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>00:34:45</t>
+          <t>01:37:27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>00:34:45</t>
+          <t>01:44:36</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.0008217592592592593</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>01:45:47</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0.002627314814814815</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>01:47:58</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>01:51:45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>desplacado</t>
+          <t>vazado</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>20242</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>0.001261574074074074</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>00:35:50</t>
+          <t>01:42:43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>00:35:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>12</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>desplacado</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>20242</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>00:39:02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>00:39:02</t>
+          <t>01:44:32</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.000787037037037037</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>01:45:40</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0.002650462962962963</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>01:47:50</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>01:51:39</t>
         </is>
       </c>
     </row>
